--- a/archivo3Modificado.xlsx
+++ b/archivo3Modificado.xlsx
@@ -10,6 +10,8 @@
   </sheets>
   <definedNames>
     <definedName name="PUE.NUM.edad2">Sheet1!$D$4</definedName>
+    <definedName name="PUE.SLIDE.0.1.0.1.porcentaje1">Sheet1!$B$11</definedName>
+    <definedName name="PUE.STRING.cadena1">Sheet1!$G$11</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -464,7 +466,7 @@
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -549,7 +551,7 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
@@ -628,11 +630,11 @@
     </row>
     <row r="11">
       <c r="B11" s="4" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>HolaCambiado</t>
+          <t>HolaCambiado2</t>
         </is>
       </c>
     </row>

--- a/archivo3Modificado.xlsx
+++ b/archivo3Modificado.xlsx
@@ -12,6 +12,7 @@
     <definedName name="PUE.NUM.edad2">Sheet1!$D$4</definedName>
     <definedName name="PUE.SLIDE.0.1.0.1.porcentaje1">Sheet1!$B$11</definedName>
     <definedName name="PUE.STRING.cadena1">Sheet1!$G$11</definedName>
+    <definedName name="PUE.SWITCH.analizar">Sheet1!$E$14</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -463,10 +464,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:O13"/>
+  <dimension ref="B2:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -519,10 +520,8 @@
           <t>Dalmasso</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>HolaCambiado</t>
-        </is>
+      <c r="D3" s="4" t="n">
+        <v>22</v>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
@@ -551,7 +550,7 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7" t="inlineStr">
         <is>
@@ -630,11 +629,11 @@
     </row>
     <row r="11">
       <c r="B11" s="4" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>HolaCambiado2</t>
+          <t>Hola</t>
         </is>
       </c>
     </row>
@@ -646,6 +645,16 @@
     <row r="13">
       <c r="B13" s="4" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Analizar?</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/archivo3Modificado.xlsx
+++ b/archivo3Modificado.xlsx
@@ -10,9 +10,11 @@
   </sheets>
   <definedNames>
     <definedName name="PUE.NUM.edad2">Sheet1!$D$4</definedName>
+    <definedName name="PUE.NUM.legajos">Sheet1!$A$3:$A$5</definedName>
     <definedName name="PUE.SLIDE.0.1.0.1.porcentaje1">Sheet1!$B$11</definedName>
     <definedName name="PUE.STRING.cadena1">Sheet1!$G$11</definedName>
     <definedName name="PUE.SWITCH.analizar">Sheet1!$E$14</definedName>
+    <definedName name="PUE.SWITCH.booleanos">Sheet1!$I$9:$I$12</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -464,10 +466,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:O14"/>
+  <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -479,6 +481,11 @@
   </cols>
   <sheetData>
     <row r="2" ht="18.6" customHeight="1" s="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LEGAJOS</t>
+        </is>
+      </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Nombre</t>
@@ -502,14 +509,29 @@
       <c r="F2" s="6" t="n"/>
       <c r="H2" s="3" t="n"/>
       <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
-      <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="n"/>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Maquina 1</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Maquina 2</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Maquina 3</t>
+        </is>
+      </c>
       <c r="M2" s="1" t="n"/>
       <c r="N2" s="3" t="n"/>
       <c r="O2" s="3" t="n"/>
     </row>
     <row r="3">
+      <c r="A3" t="n">
+        <v>25407</v>
+      </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Fidel</t>
@@ -530,15 +552,28 @@
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>Velocidad</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>700</v>
+      </c>
       <c r="M3" s="3" t="n"/>
       <c r="N3" s="3" t="n"/>
       <c r="O3" s="3" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="2">
+      <c r="A4" t="n">
+        <v>26549</v>
+      </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Mateo</t>
@@ -559,15 +594,28 @@
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Uso</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0.5</v>
+      </c>
       <c r="M4" s="3" t="n"/>
       <c r="N4" s="3" t="n"/>
       <c r="O4" s="3" t="n"/>
     </row>
     <row r="5">
+      <c r="A5" t="n">
+        <v>23403</v>
+      </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Matias </t>
@@ -588,10 +636,20 @@
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Anios</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" s="3" t="n"/>
       <c r="N5" s="3" t="n"/>
       <c r="O5" s="3" t="n"/>
@@ -621,11 +679,17 @@
           <t>Porcentajes</t>
         </is>
       </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n">
         <v>0.1</v>
       </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="4" t="n">
@@ -636,10 +700,16 @@
           <t>Hola</t>
         </is>
       </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="4" t="n">
         <v>0.9</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
